--- a/biology/Zoologie/Cricetomys/Cricetomys.xlsx
+++ b/biology/Zoologie/Cricetomys/Cricetomys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les  cricétomes,  auparavant connus sous les noms impropres de rats de Gambie  ou
 rats géants, sont de gros rongeurs africains pesant autour de 1,4 kg et traditionnellement chassés pour l’alimentation humaine dans la majeure partie de
@@ -488,7 +500,7 @@
 Deux espèces sont distinguées :
 Cricetomys emini - cricétome de forêt parfois appelé Rat géant d'Emin
 Cricetomys gambianus - cricétome des savanes parfois appelé rat de Gambie
-On utilise depuis 2007 ces rats géants comme démineurs, pour détecter les mines antipersonnel au Mozambique[1]. L'un d'eux, Magawa, a été décoré en 2020 de la médaille d'or du PDSA pour la même action au Cambodge[2].
+On utilise depuis 2007 ces rats géants comme démineurs, pour détecter les mines antipersonnel au Mozambique. L'un d'eux, Magawa, a été décoré en 2020 de la médaille d'or du PDSA pour la même action au Cambodge.
 </t>
         </is>
       </c>
